--- a/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
+++ b/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -109,17 +109,6 @@
   </si>
   <si>
     <t>Fecha S3</t>
-  </si>
-  <si>
-    <t>COMO Recepcionista 
-QUIERO Ver el Listado de las Camas Disponibles 
-PARA Asignar a un Inquilino en caso de que necesite una cama adicional</t>
-  </si>
-  <si>
-    <t>*Debe tener un panel de las camas
-*Debe haber una pequeña descripción de las camas
-*Que al presionar el boton de "Añadir cama" aparezcan las camas, la disponibilidad
-*Debe tener un botón de "Asignar Cama" al inquilino que la esté solicitando.</t>
   </si>
   <si>
     <t>COMO Recepcionista 
@@ -137,10 +126,6 @@
 PARA Tener un control de los inquilinos y no generar datos basura en el sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Cuando aparezca un mensaje que diga "Cama Asignada A" [Nombre- Inquilino]
-</t>
-  </si>
-  <si>
     <t>1. Cuando la información de la reserva sea verificada en la base de datos
 2. Cuando en la pantalla de reserva después de dar clic en el botón "Crear Reserva" Salga un mensaje de "Reserva Numero [Numero de reserva] Creada Exitosamente"</t>
   </si>
@@ -149,20 +134,96 @@
 *En ese formulario se debe ingresar los datos del inquilino, o en su defecto si ya está inscrito en nuestro sistema, traerlos de la base de datos por medio de un autocompletado, ya sea por nombre o por su codigo de identificación</t>
   </si>
   <si>
-    <t>*Debe haber una funcionalidad que permita consultar las reservas activas, por medio de una grilla y que esa grilla contenga el criterio de autocompletado para obtener el numero de reserva a modificar.
+    <t>1. Cuando después de modificada la información aparezca en pantalla el mensaje "Reserva Numero [Numero Reserva] Modificada exitosamente por [Usuario]"
+2. Teniendo en cuenta el punto anterior, al volver a consultar la grilla de reservas, aparezca la nueva información de la reserva modificada.</t>
+  </si>
+  <si>
+    <t>*Debe existir en la misma grilla de consulta de reservas un botón que diga "Eliminar Reserva"</t>
+  </si>
+  <si>
+    <t>1. Después de hacer clic en el botón de eliminar reserva, el sistema genere un mensaje de confirmación. Al decir que si, aparezca el mensaje de "Reserva numero [Numero Reserva] Eliminada por [Nombre Usuario]"</t>
+  </si>
+  <si>
+    <t>COMO Recepcionista 
+QUIERO Listar la Reserva 
+PARA que se me faciliten las operaciones que pueda hacer sobre las reservas</t>
+  </si>
+  <si>
+    <t>*Que esa grilla contenga el criterio de autocompletado para obtener el numero de reserva a modificar.
 *Debe tener un botón para modificar los datos de la reserva.
 *Dependiendo del punto anterior, Se debe generar un formulario parecido al de creación de reserva, pero con los datos ingresados, para que pueda modificar el campo deseado.
 *Debe tener los botones "Actualizar Reserva" y "Cancelar" Para salir sin guardar los cambios</t>
   </si>
   <si>
-    <t>1. Cuando después de modificada la información aparezca en pantalla el mensaje "Reserva Numero [Numero Reserva] Modificada exitosamente por [Usuario]"
-2. Teniendo en cuenta el punto anterior, al volver a consultar la grilla de reservas, aparezca la nueva información de la reserva modificada.</t>
-  </si>
-  <si>
-    <t>*Debe existir en la misma grilla de consulta de reservas un botón que diga "Eliminar Reserva"</t>
-  </si>
-  <si>
-    <t>1. Después de hacer clic en el botón de eliminar reserva, el sistema genere un mensaje de confirmación. Al decir que si, aparezca el mensaje de "Reserva numero [Numero Reserva] Eliminada por [Nombre Usuario]"</t>
+    <t>*Debe haber una funcionalidad que permita consultar las reservas activas, por medio de una grilla</t>
+  </si>
+  <si>
+    <t>1. Cuando se desplieguen las reservas activas del sistema, listas para realizar cualquier operación de gestión.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>HU5</t>
+  </si>
+  <si>
+    <t>COMO Recepcionista 
+QUIERO Ver el Listado de las Camas Disponibles 
+PARA facilitar las operaciones de las camas sobre un inquilino en particular</t>
+  </si>
+  <si>
+    <t>HU6</t>
+  </si>
+  <si>
+    <t>COMO Recepcionista 
+QUIERO Asignar una cama a un inquilino 
+PARA satisfacer su necesidad en caso de una cama adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Debe tener un panel de las camas (Tira de imagenes, slideshow)
+*Debe haber una pequeña descripción de las camas
+</t>
+  </si>
+  <si>
+    <t>*Que al presionar el boton de "Añadir cama" aparezcan las camas, la disponibilidad
+*Debe tener un botón de "Asignar Cama" al inquilino que la esté solicitando.</t>
+  </si>
+  <si>
+    <t>1. Cuando aparezca un mensaje que diga "Cama Asignada A" [Nombre- Inquilino]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Cuando aparezca el panel de las camas en la consulta.
+</t>
+  </si>
+  <si>
+    <t>HU7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO Recepcionista 
+QUIERO Hacer Check In 
+PARA Entregarle las llaves de su habitación al inquilino </t>
+  </si>
+  <si>
+    <t>HU8</t>
+  </si>
+  <si>
+    <t>COMO Recepcionista 
+QUIERO Check Out 
+PARA Tener el control de cuando un inquilino entregue su habitación al salir del hotel y cerrar el ciclo de su reserva</t>
+  </si>
+  <si>
+    <t>*Debe haber un panel donde se consulte por reserva, por apellido o por cedula en la misma grilla
+*Al seleccionar la reserva apropiada, debe haber un botón que diga "Check In a esta reserva". Al hacer esa operación, la habitación cambiará al estado "Reservada"</t>
+  </si>
+  <si>
+    <t>1. Después de hacer clic al botón de Check In, aparece un mensaje que diga "Check In Aplicado Exitosamente para el Inquilino [Nombre Inquilino] por el usuario [Nombre Usuario] a las [Fecha sistema]"</t>
+  </si>
+  <si>
+    <t>*Debe haber un panel de búsqueda para las reservas activas actualmente para seleccionar la correspondiente a hacerle Check Out
+*El sistema debe hacer cambiar automaticamente el estado de la habitación de "Reservada" a "Limpieza"</t>
+  </si>
+  <si>
+    <t>1. Después de hacer clic en el botón de Check Out, aparece un mensaje que diga "Check Out Aplicado exitosamente. Se procede a cambiar la habitación a modo disponible"</t>
   </si>
 </sst>
 </file>
@@ -218,12 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,13 +342,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,11 +573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-236483664"/>
-        <c:axId val="-236483120"/>
+        <c:axId val="-409036608"/>
+        <c:axId val="-409036064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-236483664"/>
+        <c:axId val="-409036608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-236483120"/>
+        <c:crossAx val="-409036064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-236483120"/>
+        <c:axId val="-409036064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,14 +606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-236483664"/>
+        <c:crossAx val="-409036608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -927,10 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -958,73 +1016,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="128.25">
+    <row r="2" spans="1:5" ht="77.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="164.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="84.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="164.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="201.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="141.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="112.5" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="308.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" ht="156" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1093,7 +1249,7 @@
         <v>12.6</v>
       </c>
       <c r="F2">
-        <f>SUM('Historias de Usuario'!E2:E5)</f>
+        <f>SUM('Historias de Usuario'!E2:E7)</f>
         <v>14</v>
       </c>
     </row>

--- a/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
+++ b/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
@@ -573,11 +573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-409036608"/>
-        <c:axId val="-409036064"/>
+        <c:axId val="276822736"/>
+        <c:axId val="276811856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-409036608"/>
+        <c:axId val="276822736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-409036064"/>
+        <c:crossAx val="276811856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-409036064"/>
+        <c:axId val="276811856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-409036608"/>
+        <c:crossAx val="276822736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,8 +987,8 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1038,33 +1038,33 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="164.25" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="250.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="201.75" customHeight="1">
@@ -1072,16 +1072,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="141.75" customHeight="1">
@@ -1089,13 +1089,13 @@
         <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>40</v>
@@ -1106,16 +1106,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="156" customHeight="1">

--- a/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
+++ b/HU-HistoriaDeUsuario-HotelCeleste17062019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Tinoco\Desktop\Inicio.Arranque\EAProjects\Hotel-Celeste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Tinoco\Desktop\Inicio.Arranque\EAProjects\Hotel-Celeste\docs-hceleste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +284,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -350,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -573,11 +584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="276822736"/>
-        <c:axId val="276811856"/>
+        <c:axId val="1203897760"/>
+        <c:axId val="1203898304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276822736"/>
+        <c:axId val="1203897760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276811856"/>
+        <c:crossAx val="1203898304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276811856"/>
+        <c:axId val="1203898304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="276822736"/>
+        <c:crossAx val="1203897760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +999,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1017,7 +1028,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="77.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1034,7 +1045,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1051,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="250.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1068,7 +1079,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="201.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1085,7 +1096,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="141.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1102,7 +1113,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="112.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1119,7 +1130,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="156" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1136,7 +1147,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="130.5" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
